--- a/TestChart.xlsx
+++ b/TestChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
   <si>
     <t>Point2</t>
     <phoneticPr fontId="1"/>
@@ -423,11 +423,37 @@
     <t>GND</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2014.07.11テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.02k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IC3 Pin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -717,26 +743,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,36 +768,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,18 +804,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -836,8 +828,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1153,7 +1157,7 @@
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
@@ -1167,38 +1171,42 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5">
@@ -1216,7 +1224,9 @@
       <c r="F6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5">
@@ -1234,7 +1244,9 @@
       <c r="F7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5">
@@ -1252,7 +1264,9 @@
       <c r="F8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5">
@@ -1270,7 +1284,9 @@
       <c r="F9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5">
@@ -1288,7 +1304,9 @@
       <c r="F10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="5">
@@ -1306,7 +1324,9 @@
       <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5">
@@ -1324,7 +1344,9 @@
       <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
@@ -1342,7 +1364,9 @@
       <c r="F13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
@@ -1360,7 +1384,9 @@
       <c r="F14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="29" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
@@ -1378,7 +1404,9 @@
       <c r="F15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
@@ -1396,7 +1424,9 @@
       <c r="F16" s="4">
         <v>47.2</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="29">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
@@ -1414,7 +1444,9 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
@@ -1432,7 +1464,9 @@
       <c r="F18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
@@ -1450,7 +1484,9 @@
       <c r="F19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
@@ -1468,7 +1504,9 @@
       <c r="F20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
@@ -1486,7 +1524,9 @@
       <c r="F21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="5">
@@ -1504,7 +1544,9 @@
       <c r="F22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="5">
@@ -1522,7 +1564,9 @@
       <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="5">
@@ -1540,7 +1584,9 @@
       <c r="F24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="5">
@@ -1550,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -1558,7 +1604,9 @@
       <c r="F25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="5">
@@ -1576,7 +1624,9 @@
       <c r="F26" s="4">
         <v>47.3</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="5">
@@ -1594,7 +1644,9 @@
       <c r="F27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="5">
@@ -1612,7 +1664,9 @@
       <c r="F28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="5">
@@ -1630,7 +1684,9 @@
       <c r="F29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="5">
@@ -1648,7 +1704,9 @@
       <c r="F30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="5">
@@ -1666,7 +1724,9 @@
       <c r="F31" s="4">
         <v>47.2</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="29">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
@@ -1684,7 +1744,9 @@
       <c r="F32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="5">
@@ -1702,7 +1764,9 @@
       <c r="F33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="5">
@@ -1720,7 +1784,9 @@
       <c r="F34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="5">
@@ -1738,7 +1804,9 @@
       <c r="F35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="5">
@@ -1756,7 +1824,9 @@
       <c r="F36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="5">
@@ -1774,7 +1844,9 @@
       <c r="F37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="22"/>
+      <c r="G37" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="5">
@@ -1784,7 +1856,7 @@
         <v>40</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
@@ -1792,7 +1864,9 @@
       <c r="F38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="5">
@@ -1810,7 +1884,9 @@
       <c r="F39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="5">
@@ -1828,7 +1904,9 @@
       <c r="F40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="22"/>
+      <c r="G40" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="5">
@@ -1846,7 +1924,9 @@
       <c r="F41" s="4">
         <v>47.2</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="29">
+        <v>47.3</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="5">
@@ -1864,7 +1944,9 @@
       <c r="F42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="22"/>
+      <c r="G42" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="5">
@@ -1882,7 +1964,9 @@
       <c r="F43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="22"/>
+      <c r="G43" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="5">
@@ -1897,10 +1981,12 @@
       <c r="E44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="29" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="5">
@@ -1918,7 +2004,9 @@
       <c r="F45" s="4">
         <v>994</v>
       </c>
-      <c r="G45" s="22"/>
+      <c r="G45" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="5">
@@ -1933,10 +2021,12 @@
       <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="22"/>
+      <c r="G46" s="29" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="5">
@@ -1954,7 +2044,9 @@
       <c r="F47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="22"/>
+      <c r="G47" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="5">
@@ -1972,7 +2064,9 @@
       <c r="F48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="22"/>
+      <c r="G48" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B49" s="5">
@@ -1990,7 +2084,9 @@
       <c r="F49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="22"/>
+      <c r="G49" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B50" s="5">
@@ -2008,23 +2104,27 @@
       <c r="F50" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="22"/>
+      <c r="G50" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="30">
+      <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="29" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
@@ -2033,35 +2133,35 @@
     </row>
     <row r="54" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="20"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="10">
+      <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B56" s="5">
@@ -2073,11 +2173,11 @@
       <c r="D56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B57" s="5">
@@ -2089,11 +2189,11 @@
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="5">
@@ -2105,11 +2205,11 @@
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="28"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="5">
@@ -2121,11 +2221,11 @@
       <c r="D59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="5">
@@ -2137,11 +2237,11 @@
       <c r="D60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="5">
@@ -2153,27 +2253,27 @@
       <c r="D61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="6"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="9"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/TestChart.xlsx
+++ b/TestChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="120">
   <si>
     <t>Point2</t>
     <phoneticPr fontId="1"/>
@@ -446,13 +446,73 @@
     <t>IC3 Pin1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2014.07.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.電源 In1 0.45V Sine 1kHz  </t>
+    <rPh sb="2" eb="4">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>DC 0V AC 0.45V</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>IC1 Pin3</t>
+  </si>
+  <si>
+    <t>IC1 Pin5</t>
+  </si>
+  <si>
+    <t>IC1 Pin2</t>
+  </si>
+  <si>
+    <t>IC1 Pin6</t>
+  </si>
+  <si>
+    <t>IC1 Pin1</t>
+  </si>
+  <si>
+    <t>DC 0V AC 1.45V</t>
+  </si>
+  <si>
+    <t>IC1 Pin7</t>
+  </si>
+  <si>
+    <t>V+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500uA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-500uA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -485,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -743,13 +803,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,19 +930,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H62"/>
+  <dimension ref="A2:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1156,6 +1270,7 @@
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="26" customWidth="1"/>
   </cols>
@@ -2122,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="F51" s="25"/>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2143,7 +2258,9 @@
       <c r="E54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="G54" s="27"/>
       <c r="H54" s="16"/>
     </row>
@@ -2160,7 +2277,9 @@
       <c r="E55" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="20"/>
+      <c r="F55" s="20">
+        <v>-4.34</v>
+      </c>
       <c r="G55" s="28"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2176,7 +2295,9 @@
       <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="21"/>
+      <c r="F56" s="21">
+        <v>4.47</v>
+      </c>
       <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2192,7 +2313,9 @@
       <c r="E57" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="21"/>
+      <c r="F57" s="21">
+        <v>-4.34</v>
+      </c>
       <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2208,7 +2331,9 @@
       <c r="E58" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="21"/>
+      <c r="F58" s="21">
+        <v>4.47</v>
+      </c>
       <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2224,7 +2349,9 @@
       <c r="E59" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="21"/>
+      <c r="F59" s="21">
+        <v>-4.34</v>
+      </c>
       <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2240,7 +2367,9 @@
       <c r="E60" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="21"/>
+      <c r="F60" s="21">
+        <v>4.47</v>
+      </c>
       <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2256,7 +2385,9 @@
       <c r="E61" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="21"/>
+      <c r="F61" s="21">
+        <v>4.47</v>
+      </c>
       <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2272,8 +2403,185 @@
       <c r="E62" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="22">
+        <v>-4.34</v>
+      </c>
       <c r="G62" s="30"/>
+    </row>
+    <row r="64" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="31">
+        <v>1</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="5">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="29"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="5">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="29"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="5">
+        <v>4</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="20"/>
+      <c r="G69" s="28"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="5">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="5">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="29"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="5">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="5">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="5">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="6">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/TestChart.xlsx
+++ b/TestChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="133">
   <si>
     <t>Point2</t>
     <phoneticPr fontId="1"/>
@@ -504,6 +504,58 @@
   </si>
   <si>
     <t>-500uA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.07.13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.28mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-11.80mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.243 0.140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.26  0.35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.36  0.301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.30  0.119</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.061 0.140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.28  0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.26  0.324</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.57  0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.07.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.02mA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1261,7 +1313,7 @@
   <dimension ref="A2:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2424,8 +2476,12 @@
       <c r="E65" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="66" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B66" s="31">
@@ -2438,8 +2494,12 @@
       <c r="E66" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="34"/>
+      <c r="F66" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="5">
@@ -2452,7 +2512,9 @@
       <c r="E67" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="G67" s="29"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.15">
@@ -2468,7 +2530,9 @@
       <c r="E68" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.15">
@@ -2484,7 +2548,9 @@
       <c r="E69" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="20"/>
+      <c r="F69" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="G69" s="28"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
@@ -2500,7 +2566,9 @@
       <c r="E70" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F70" s="21"/>
+      <c r="F70" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="G70" s="29"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
@@ -2516,7 +2584,9 @@
       <c r="E71" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="21"/>
+      <c r="F71" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="G71" s="29"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
@@ -2532,7 +2602,9 @@
       <c r="E72" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F72" s="21"/>
+      <c r="F72" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
@@ -2548,7 +2620,9 @@
       <c r="E73" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="21"/>
+      <c r="F73" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
@@ -2564,7 +2638,9 @@
       <c r="E74" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F74" s="21"/>
+      <c r="F74" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="G74" s="29"/>
     </row>
     <row r="75" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2580,7 +2656,9 @@
       <c r="E75" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F75" s="22"/>
+      <c r="F75" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="G75" s="30"/>
     </row>
   </sheetData>

--- a/TestChart.xlsx
+++ b/TestChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="133">
   <si>
     <t>Point2</t>
     <phoneticPr fontId="1"/>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IC3 Pin1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -556,6 +552,10 @@
   </si>
   <si>
     <t>2.02mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.07.18</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -566,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +577,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -898,12 +906,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,8 +1020,36 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1310,34 +1349,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H75"/>
+  <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="26" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>72</v>
@@ -1351,11 +1391,12 @@
       <c r="F4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -1371,11 +1412,12 @@
       <c r="F5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1391,11 +1433,12 @@
       <c r="F6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -1411,11 +1454,12 @@
       <c r="F7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1431,11 +1475,12 @@
       <c r="F8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1451,11 +1496,12 @@
       <c r="F9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1471,11 +1517,12 @@
       <c r="F10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1491,11 +1538,12 @@
       <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1511,11 +1559,12 @@
       <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1531,11 +1580,12 @@
       <c r="F13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -1551,11 +1601,12 @@
       <c r="F14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -1571,11 +1622,12 @@
       <c r="F15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -1591,11 +1643,12 @@
       <c r="F16" s="4">
         <v>47.2</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="37">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -1611,11 +1664,12 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G17" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -1631,11 +1685,12 @@
       <c r="F18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G18" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -1651,11 +1706,12 @@
       <c r="F19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G19" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -1671,11 +1727,12 @@
       <c r="F20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -1691,11 +1748,12 @@
       <c r="F21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G21" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -1711,11 +1769,12 @@
       <c r="F22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G22" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="5">
         <v>19</v>
       </c>
@@ -1731,11 +1790,12 @@
       <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="5">
         <v>20</v>
       </c>
@@ -1751,11 +1811,12 @@
       <c r="F24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G24" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="5">
         <v>21</v>
       </c>
@@ -1763,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -1771,11 +1832,12 @@
       <c r="F25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="5">
         <v>22</v>
       </c>
@@ -1791,11 +1853,12 @@
       <c r="F26" s="4">
         <v>47.3</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="5">
         <v>23</v>
       </c>
@@ -1811,11 +1874,12 @@
       <c r="F27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -1831,11 +1895,12 @@
       <c r="F28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -1851,11 +1916,12 @@
       <c r="F29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -1871,11 +1937,12 @@
       <c r="F30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="5">
         <v>27</v>
       </c>
@@ -1891,11 +1958,12 @@
       <c r="F31" s="4">
         <v>47.2</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="37">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <v>28</v>
       </c>
@@ -1911,11 +1979,12 @@
       <c r="F32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="5">
         <v>29</v>
       </c>
@@ -1931,11 +2000,12 @@
       <c r="F33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="5">
         <v>30</v>
       </c>
@@ -1951,11 +2021,12 @@
       <c r="F34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="5">
         <v>31</v>
       </c>
@@ -1971,11 +2042,12 @@
       <c r="F35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="5">
         <v>32</v>
       </c>
@@ -1991,11 +2063,12 @@
       <c r="F36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="5">
         <v>33</v>
       </c>
@@ -2011,11 +2084,12 @@
       <c r="F37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="5">
         <v>34</v>
       </c>
@@ -2031,11 +2105,12 @@
       <c r="F38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="5">
         <v>35</v>
       </c>
@@ -2051,11 +2126,12 @@
       <c r="F39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G39" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="5">
         <v>36</v>
       </c>
@@ -2071,11 +2147,12 @@
       <c r="F40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="5">
         <v>37</v>
       </c>
@@ -2091,11 +2168,12 @@
       <c r="F41" s="4">
         <v>47.2</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="37">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="5">
         <v>38</v>
       </c>
@@ -2111,11 +2189,12 @@
       <c r="F42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G42" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="5">
         <v>39</v>
       </c>
@@ -2131,11 +2210,12 @@
       <c r="F43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G43" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="5">
         <v>40</v>
       </c>
@@ -2151,11 +2231,12 @@
       <c r="F44" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G44" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="5">
         <v>41</v>
       </c>
@@ -2171,11 +2252,12 @@
       <c r="F45" s="4">
         <v>994</v>
       </c>
-      <c r="G45" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G45" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="5">
         <v>42</v>
       </c>
@@ -2191,11 +2273,12 @@
       <c r="F46" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G46" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="5">
         <v>43</v>
       </c>
@@ -2211,11 +2294,12 @@
       <c r="F47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G47" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -2231,11 +2315,12 @@
       <c r="F48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G48" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" s="5">
         <v>45</v>
       </c>
@@ -2251,11 +2336,12 @@
       <c r="F49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G49" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" s="5">
         <v>46</v>
       </c>
@@ -2271,11 +2357,12 @@
       <c r="F50" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23">
         <v>47</v>
       </c>
@@ -2289,16 +2376,17 @@
         <v>15</v>
       </c>
       <c r="F51" s="25"/>
-      <c r="G51" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11" t="s">
@@ -2311,12 +2399,15 @@
         <v>6</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
         <v>1</v>
       </c>
@@ -2332,9 +2423,12 @@
       <c r="F55" s="20">
         <v>-4.34</v>
       </c>
-      <c r="G55" s="28"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G55" s="41">
+        <v>-3.97</v>
+      </c>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" s="5">
         <v>2</v>
       </c>
@@ -2350,9 +2444,12 @@
       <c r="F56" s="21">
         <v>4.47</v>
       </c>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G56" s="42">
+        <v>4.22</v>
+      </c>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" s="5">
         <v>3</v>
       </c>
@@ -2368,9 +2465,12 @@
       <c r="F57" s="21">
         <v>-4.34</v>
       </c>
-      <c r="G57" s="29"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G57" s="42">
+        <v>-3.97</v>
+      </c>
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" s="5">
         <v>4</v>
       </c>
@@ -2386,9 +2486,12 @@
       <c r="F58" s="21">
         <v>4.47</v>
       </c>
-      <c r="G58" s="29"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G58" s="42">
+        <v>4.22</v>
+      </c>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B59" s="5">
         <v>5</v>
       </c>
@@ -2404,9 +2507,12 @@
       <c r="F59" s="21">
         <v>-4.34</v>
       </c>
-      <c r="G59" s="29"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G59" s="42">
+        <v>-3.97</v>
+      </c>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B60" s="5">
         <v>6</v>
       </c>
@@ -2422,9 +2528,12 @@
       <c r="F60" s="21">
         <v>4.47</v>
       </c>
-      <c r="G60" s="29"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G60" s="42">
+        <v>4.22</v>
+      </c>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B61" s="5">
         <v>7</v>
       </c>
@@ -2440,9 +2549,12 @@
       <c r="F61" s="21">
         <v>4.47</v>
       </c>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="42">
+        <v>4.22</v>
+      </c>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6">
         <v>8</v>
       </c>
@@ -2458,14 +2570,17 @@
       <c r="F62" s="22">
         <v>-4.34</v>
       </c>
-      <c r="G62" s="30"/>
-    </row>
-    <row r="64" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="43">
+        <v>-3.97</v>
+      </c>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="11" t="s">
         <v>72</v>
@@ -2477,193 +2592,204 @@
         <v>6</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B66" s="31">
         <v>1</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="34"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B67" s="5">
         <v>2</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G67" s="29"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" s="5">
         <v>3</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G68" s="29"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="5">
         <v>4</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F69" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="28"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="5">
         <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F70" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G70" s="29"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="G70" s="37"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" s="5">
         <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F71" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G71" s="29"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="G71" s="37"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" s="5">
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F72" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="G72" s="37"/>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" s="5">
         <v>8</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F73" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" s="29"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" s="5">
         <v>9</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="F74" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="29"/>
-    </row>
-    <row r="75" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6">
         <v>10</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G75" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="G75" s="38"/>
+      <c r="H75" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P&amp;R&amp;D &amp;T</oddFooter>

--- a/TestChart.xlsx
+++ b/TestChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="135">
   <si>
     <t>Point2</t>
     <phoneticPr fontId="1"/>
@@ -547,15 +547,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2014.07.15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.02mA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2014.07.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.07.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11mA to 37mA ※1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12mA to 35mA ※1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ヘッドホン出力なし to ヘッドホン出力MAX</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -914,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,9 +1041,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I75"/>
+  <dimension ref="A2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2401,8 +2409,8 @@
       <c r="F54" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>132</v>
+      <c r="G54" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="16"/>
@@ -2423,7 +2431,7 @@
       <c r="F55" s="20">
         <v>-4.34</v>
       </c>
-      <c r="G55" s="41">
+      <c r="G55" s="40">
         <v>-3.97</v>
       </c>
       <c r="H55" s="28"/>
@@ -2444,7 +2452,7 @@
       <c r="F56" s="21">
         <v>4.47</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="41">
         <v>4.22</v>
       </c>
       <c r="H56" s="29"/>
@@ -2465,7 +2473,7 @@
       <c r="F57" s="21">
         <v>-4.34</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="41">
         <v>-3.97</v>
       </c>
       <c r="H57" s="29"/>
@@ -2486,7 +2494,7 @@
       <c r="F58" s="21">
         <v>4.47</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="41">
         <v>4.22</v>
       </c>
       <c r="H58" s="29"/>
@@ -2507,7 +2515,7 @@
       <c r="F59" s="21">
         <v>-4.34</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="41">
         <v>-3.97</v>
       </c>
       <c r="H59" s="29"/>
@@ -2528,7 +2536,7 @@
       <c r="F60" s="21">
         <v>4.47</v>
       </c>
-      <c r="G60" s="42">
+      <c r="G60" s="41">
         <v>4.22</v>
       </c>
       <c r="H60" s="29"/>
@@ -2549,7 +2557,7 @@
       <c r="F61" s="21">
         <v>4.47</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="41">
         <v>4.22</v>
       </c>
       <c r="H61" s="29"/>
@@ -2570,7 +2578,7 @@
       <c r="F62" s="22">
         <v>-4.34</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="42">
         <v>-3.97</v>
       </c>
       <c r="H62" s="30"/>
@@ -2594,8 +2602,8 @@
       <c r="F65" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>130</v>
+      <c r="G65" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="H65" s="27"/>
     </row>
@@ -2613,8 +2621,8 @@
       <c r="F66" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="G66" s="39" t="s">
-        <v>131</v>
+      <c r="G66" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="H66" s="34"/>
     </row>
@@ -2632,7 +2640,9 @@
       <c r="F67" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="37"/>
+      <c r="G67" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="H67" s="29"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
@@ -2786,6 +2796,11 @@
       </c>
       <c r="G75" s="38"/>
       <c r="H75" s="30"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
